--- a/biology/Botanique/Paphinia_subclausa/Paphinia_subclausa.xlsx
+++ b/biology/Botanique/Paphinia_subclausa/Paphinia_subclausa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia subclausa Dressler est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et de la sous-tribu des Stanhopeinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fleurs blanches peu ouvertes. 
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Proche de Paphinia rugosa, longtemps l'espèce a fait l'objet de confusion avec d'autres espèces de Paphinia blanches. Plusieurs pollinisateurs sont connus : Euglossa gorgonensis, Euglossa hansoni, Euglossa asarophora et Euglossa orichalcea.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">subclausus, a, um adj.latin : un peu fermé.
 </t>
@@ -604,7 +622,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paphinia clausula auct., non Dressler, 1966.</t>
         </is>
@@ -634,7 +654,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Paphinia rugosae similis sed pede columnae brevi, floribus albidis subclausis, lobo intermedio labello angustiore.
 Dressler. Novon 7 (2) : 121, f. 3. 1997.</t>
@@ -665,7 +687,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante type a été récoltée en août 1989 au Costa Rica dans la Réserve Juan Castro Blanco à 900 m, sur de grands troncs. Costa Rica, Panama, Colombie du Nord. 
 </t>
